--- a/data/META.xlsx
+++ b/data/META.xlsx
@@ -14,10 +14,6 @@
   <sheets>
     <sheet name="META" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="meta_auxiliary_power_percentage_district_heating">META!$BX$2</definedName>
     <definedName name="meta_auxiliary_power_percentage_gas">META!$BX$2</definedName>
@@ -146,8 +142,6 @@
     <definedName name="meta_ventilation_transition_period_efficiency">META!$CD$2</definedName>
     <definedName name="meta_wind_charging_power_max">META!$BZ$2</definedName>
     <definedName name="meta_wind_percentage_of_nominal_power">META!$BY$2</definedName>
-    <definedName name="Output_Heizwaermeverteilung_kWhma" localSheetId="0">'[2]WW+Verteil'!$X$40</definedName>
-    <definedName name="Sommer_Spez_Kapazitaet" localSheetId="0">[2]Nachweis!$K$29</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -159,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="320">
   <si>
     <t>Gebäude</t>
   </si>
@@ -1092,6 +1086,36 @@
   </si>
   <si>
     <t>e-Speicher</t>
+  </si>
+  <si>
+    <t>BasisVar</t>
+  </si>
+  <si>
+    <t>ArchiVar</t>
+  </si>
+  <si>
+    <t>ArchiVar1</t>
+  </si>
+  <si>
+    <t>ArchiVar2</t>
+  </si>
+  <si>
+    <t>ArchiVar3</t>
+  </si>
+  <si>
+    <t>Wind 2013</t>
+  </si>
+  <si>
+    <t>Wind 2015</t>
+  </si>
+  <si>
+    <t>Wind 2016</t>
+  </si>
+  <si>
+    <t>Wind 2030, TU EEG, "Stromzukunft"</t>
+  </si>
+  <si>
+    <t>WEB 2015 Umgebung Wien</t>
   </si>
 </sst>
 </file>
@@ -2764,362 +2788,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Abwärme"/>
-      <sheetName val="Solare_Gewinne"/>
-      <sheetName val="ECars"/>
-      <sheetName val="Wind"/>
-      <sheetName val="Erklärung"/>
-      <sheetName val="PV"/>
-      <sheetName val="META"/>
-      <sheetName val="Klimadaten"/>
-      <sheetName val="DATUM"/>
-      <sheetName val="Heizen_Kühlen"/>
-      <sheetName val="Energiesumme"/>
-      <sheetName val="Wohnen"/>
-      <sheetName val="Buero"/>
-      <sheetName val="Schule"/>
-      <sheetName val="Kiga"/>
-      <sheetName val="HandelFood"/>
-      <sheetName val="HandelNonFood"/>
-      <sheetName val="Grafiken"/>
-      <sheetName val="Variantenübersicht"/>
-      <sheetName val="Übertrag"/>
-      <sheetName val="Auswertung"/>
-      <sheetName val="Konversionsfaktoren"/>
-      <sheetName val="SIM"/>
-      <sheetName val="Mobilität"/>
-      <sheetName val="_DIA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Wind 2013</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Wind 2015</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Wind 2016</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Wind 2030, TU EEG, "Stromzukunft"</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>WEB 2015 Umgebung Wien</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>BasisVar</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>ArchiVar</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>ArchiVar1</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>ArchiVar2</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>ArchiVar3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="DE2" t="str">
-            <v>Regionstyp</v>
-          </cell>
-          <cell r="DF2" t="str">
-            <v>Zuordnung der Jahresmobilität Wohnen</v>
-          </cell>
-          <cell r="DG2" t="str">
-            <v>Zuordnung der Jahresmobilität Büro</v>
-          </cell>
-          <cell r="DH2" t="str">
-            <v>Zuordnung der Jahresmobilität Ausbildung</v>
-          </cell>
-          <cell r="DI2" t="str">
-            <v>Zuordnung der Jahresmobilität Handel</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="DE4">
-            <v>92</v>
-          </cell>
-          <cell r="DF4">
-            <v>0.48</v>
-          </cell>
-          <cell r="DG4">
-            <v>0.18</v>
-          </cell>
-          <cell r="DH4">
-            <v>0.04</v>
-          </cell>
-          <cell r="DI4">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="DE5">
-            <v>93</v>
-          </cell>
-          <cell r="DF5">
-            <v>0.5</v>
-          </cell>
-          <cell r="DG5">
-            <v>0.17</v>
-          </cell>
-          <cell r="DH5">
-            <v>0.03</v>
-          </cell>
-          <cell r="DI5">
-            <v>0.28999999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="40">
-          <cell r="S40">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22">
-        <row r="8766">
-          <cell r="AM8766">
-            <v>22.055999651975661</v>
-          </cell>
-          <cell r="AN8766">
-            <v>60</v>
-          </cell>
-          <cell r="AO8766">
-            <v>0</v>
-          </cell>
-          <cell r="HE8766">
-            <v>23.412119638498197</v>
-          </cell>
-          <cell r="HF8766">
-            <v>60.000000000000909</v>
-          </cell>
-          <cell r="HG8766">
-            <v>0</v>
-          </cell>
-          <cell r="HH8766">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="2">
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="O2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>40</v>
-          </cell>
-          <cell r="O3">
-            <v>145341.66150000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="O4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="O5">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ZusammenThebavolausPHPP_neu2"/>
-      <sheetName val="ZusammenThebavolausPHPP_neu"/>
-      <sheetName val="Anleitung"/>
-      <sheetName val="Kontrolle"/>
-      <sheetName val="Nachweis"/>
-      <sheetName val="Übersicht"/>
-      <sheetName val="Varianten"/>
-      <sheetName val="PHeco"/>
-      <sheetName val="Vergleich"/>
-      <sheetName val="Klima"/>
-      <sheetName val="U-Werte"/>
-      <sheetName val="Bauteilflächen"/>
-      <sheetName val="Flächen"/>
-      <sheetName val="Erdreich"/>
-      <sheetName val="Komponenten"/>
-      <sheetName val="Fenster"/>
-      <sheetName val="Verschattung"/>
-      <sheetName val="Lüftung"/>
-      <sheetName val="Zusatz Lüftg."/>
-      <sheetName val="HeizJahr"/>
-      <sheetName val="Heizung"/>
-      <sheetName val="Heizlast"/>
-      <sheetName val="Heizlastohne"/>
-      <sheetName val="SommLuft"/>
-      <sheetName val="Sommer"/>
-      <sheetName val="Kühlung"/>
-      <sheetName val="Kühlgeräte"/>
-      <sheetName val="Kühllast"/>
-      <sheetName val="WW+Verteil"/>
-      <sheetName val="SolarWW"/>
-      <sheetName val="PV"/>
-      <sheetName val="Strom"/>
-      <sheetName val="Nutz NiWo"/>
-      <sheetName val="Strom NiWo"/>
-      <sheetName val="Hilfsstrom"/>
-      <sheetName val="IWQ"/>
-      <sheetName val="IWQ NiWo"/>
-      <sheetName val="PER"/>
-      <sheetName val="Kompakt"/>
-      <sheetName val="WP"/>
-      <sheetName val="WP Erde"/>
-      <sheetName val="Kessel"/>
-      <sheetName val="Fernwärme"/>
-      <sheetName val="Daten"/>
-      <sheetName val="EnEV Nachweis"/>
-      <sheetName val="EnEV Monatsv"/>
-      <sheetName val="EnEV Anlage"/>
-      <sheetName val="EnEV Stränge"/>
-      <sheetName val="EnEV Erzeuger"/>
-      <sheetName val="KfW-Effizienzhaus"/>
-      <sheetName val="KfW-Schnittstelle"/>
-      <sheetName val="EnEVSchnittstelle_neu"/>
-      <sheetName val="EnEVSchnittstelle_2.x.x"/>
-      <sheetName val="EnEV Anlage (2)"/>
-      <sheetName val="EnEV Stränge (2)"/>
-      <sheetName val="PV_sites"/>
-      <sheetName val="ZusammenThebavolausPHPP"/>
-      <sheetName val="PHPPout"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1">
-        <row r="27">
-          <cell r="K27">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>132</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1">
-        <row r="40">
-          <cell r="X40">
-            <v>0.77743184439965374</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3388,8 +3056,8 @@
   </sheetPr>
   <dimension ref="A1:EW96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DT14" sqref="DT14"/>
+    <sheetView tabSelected="1" topLeftCell="DG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DU2" sqref="DU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,7 +4287,6 @@
         <v>3000</v>
       </c>
       <c r="CH3" s="55">
-        <f>SUM([1]Mobilität!C2:C5)*META!CR3</f>
         <v>40</v>
       </c>
       <c r="CI3" s="54">
@@ -4630,7 +4297,6 @@
         <v>1.1904761904761905E-4</v>
       </c>
       <c r="CK3" s="57">
-        <f>SUM([1]Mobilität!O2:O5)*1000</f>
         <v>145341661.50000003</v>
       </c>
       <c r="CL3" s="58">
@@ -4656,7 +4322,6 @@
         <v>0.9</v>
       </c>
       <c r="CR3" s="60">
-        <f>[1]Grafiken!S40</f>
         <v>1</v>
       </c>
       <c r="CS3" s="61">
@@ -5033,13 +4698,11 @@
         <v>33</v>
       </c>
       <c r="DW4" s="80"/>
-      <c r="DX4" s="80" t="str">
-        <f>[1]PV!B6</f>
-        <v>BasisVar</v>
-      </c>
-      <c r="DY4" s="80" t="str">
-        <f>[1]Wind!B1</f>
-        <v>Wind 2013</v>
+      <c r="DX4" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="DY4" s="80" t="s">
+        <v>315</v>
       </c>
       <c r="DZ4" s="81"/>
       <c r="EA4" s="81"/>
@@ -5051,31 +4714,24 @@
         <v>148</v>
       </c>
       <c r="EP4" s="83">
-        <f>[1]SIM!HE8766</f>
         <v>23.412119638498197</v>
       </c>
       <c r="EQ4" s="84">
-        <f>[1]SIM!HF8766</f>
         <v>60.000000000000909</v>
       </c>
       <c r="ER4" s="84">
-        <f>[1]SIM!HG8766</f>
         <v>0</v>
       </c>
       <c r="ES4" s="84">
-        <f>[1]SIM!HH8766</f>
         <v>0</v>
       </c>
       <c r="ET4" s="84">
-        <f>[1]SIM!AM8766</f>
         <v>22.055999651975661</v>
       </c>
       <c r="EU4" s="84">
-        <f>[1]SIM!AN8766</f>
         <v>60</v>
       </c>
       <c r="EV4" s="85">
-        <f>[1]SIM!AO8766</f>
         <v>0</v>
       </c>
       <c r="EW4" t="s">
@@ -5201,13 +4857,11 @@
         <v>67</v>
       </c>
       <c r="DW5" s="80"/>
-      <c r="DX5" s="80" t="str">
-        <f>[1]PV!C6</f>
-        <v>ArchiVar</v>
-      </c>
-      <c r="DY5" s="80" t="str">
-        <f>[1]Wind!C1</f>
-        <v>Wind 2015</v>
+      <c r="DX5" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="DY5" s="80" t="s">
+        <v>316</v>
       </c>
       <c r="DZ5" s="81"/>
       <c r="EA5" s="81"/>
@@ -5289,13 +4943,11 @@
         <v>1.2</v>
       </c>
       <c r="DW6" s="80"/>
-      <c r="DX6" s="80" t="str">
-        <f>[1]PV!D6</f>
-        <v>ArchiVar1</v>
-      </c>
-      <c r="DY6" s="80" t="str">
-        <f>[1]Wind!D1</f>
-        <v>Wind 2016</v>
+      <c r="DX6" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="DY6" s="80" t="s">
+        <v>317</v>
       </c>
       <c r="DZ6" s="81"/>
       <c r="EA6" s="81"/>
@@ -5349,13 +5001,11 @@
         <v>1.3</v>
       </c>
       <c r="DW7" s="80"/>
-      <c r="DX7" s="80" t="str">
-        <f>[1]PV!E6</f>
-        <v>ArchiVar2</v>
-      </c>
-      <c r="DY7" s="80" t="str">
-        <f>[1]Wind!E1</f>
-        <v>Wind 2030, TU EEG, "Stromzukunft"</v>
+      <c r="DX7" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="DY7" s="80" t="s">
+        <v>318</v>
       </c>
       <c r="DZ7" s="81"/>
       <c r="EA7" s="81"/>
@@ -5413,13 +5063,11 @@
         <v>1.4</v>
       </c>
       <c r="DW8" s="81"/>
-      <c r="DX8" s="81" t="str">
-        <f>[1]PV!F6</f>
-        <v>ArchiVar3</v>
-      </c>
-      <c r="DY8" s="81" t="str">
-        <f>[1]Wind!F1</f>
-        <v>WEB 2015 Umgebung Wien</v>
+      <c r="DX8" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="DY8" s="81" t="s">
+        <v>319</v>
       </c>
       <c r="DZ8" s="81"/>
       <c r="EA8" s="81"/>
